--- a/annualyieldpermodule.xlsx
+++ b/annualyieldpermodule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fb00dc8ed84c692/Documents/Utrecht University/Energy in Built/6.2 Photovoltaic (PV) systems^J irradiance and PV performance evaluation/utrechtsmartdistricpartA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{EC9B7BA5-3176-4077-AEDA-D8135839D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB71CABC-B001-419B-8B40-18D13446C5E8}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{EC9B7BA5-3176-4077-AEDA-D8135839D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875E6B3D-D646-45CA-930B-B239222DB6C3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD5D5653-035F-443A-A3B2-9117DE18EA5C}"/>
   </bookViews>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7560010-2E6C-46A7-B5A5-A2D6BE8F529C}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -519,12 +519,8 @@
         <f>C2/D2</f>
         <v>165.69022777777778</v>
       </c>
-      <c r="G2" s="4">
-        <f>E2-E4</f>
-        <v>39.801368710420263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -542,7 +538,7 @@
         <v>86.841113888888884</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -560,7 +556,7 @@
         <v>125.88885906735752</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -577,12 +573,8 @@
         <f t="shared" si="0"/>
         <v>116.13786666666665</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5" si="1">E5-E7</f>
-        <v>27.330183246977526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -600,7 +592,7 @@
         <v>61.123337500000005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -618,7 +610,7 @@
         <v>88.807683419689127</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -635,12 +627,8 @@
         <f t="shared" si="0"/>
         <v>143.5893468253968</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" ref="G8" si="2">E8-E10</f>
-        <v>34.599469623324268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -658,7 +646,7 @@
         <v>74.977368055555559</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -676,7 +664,7 @@
         <v>108.98987720207253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -693,12 +681,8 @@
         <f t="shared" si="0"/>
         <v>147.76748809523809</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" ref="G11" si="3">E11-E13</f>
-        <v>35.216654934616329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -716,7 +700,7 @@
         <v>77.364945833333337</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -734,7 +718,7 @@
         <v>112.55083316062176</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -751,12 +735,8 @@
         <f t="shared" si="0"/>
         <v>93.477615873015878</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" ref="G14" si="4">E14-E16</f>
-        <v>21.844208619129859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -774,7 +754,7 @@
         <v>49.338095833333334</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -792,7 +772,7 @@
         <v>71.63340725388602</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -809,12 +789,8 @@
         <f t="shared" si="0"/>
         <v>209.03917063492065</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" ref="G17" si="5">E17-E19</f>
-        <v>50.436043173780746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -832,7 +808,7 @@
         <v>109.68727916666667</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -850,7 +826,7 @@
         <v>158.60312746113991</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -867,12 +843,8 @@
         <f t="shared" si="0"/>
         <v>129.90182619047619</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" ref="G20" si="6">E20-E22</f>
-        <v>30.882881112755982</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -890,7 +862,7 @@
         <v>67.659280555555569</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -908,7 +880,7 @@
         <v>99.018945077720204</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -925,12 +897,8 @@
         <f t="shared" si="0"/>
         <v>145.17481507936506</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" ref="G23" si="7">E23-E25</f>
-        <v>34.302852903199252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -948,7 +916,7 @@
         <v>76.420483333333337</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -966,7 +934,7 @@
         <v>110.87196217616581</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -983,12 +951,8 @@
         <f t="shared" si="0"/>
         <v>199.68055634920634</v>
       </c>
-      <c r="G26" s="4">
-        <f t="shared" ref="G26" si="8">E26-E28</f>
-        <v>48.51258018340323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +970,7 @@
         <v>104.36345833333333</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +988,7 @@
         <v>151.16797616580311</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -1041,12 +1005,8 @@
         <f t="shared" si="0"/>
         <v>219.99817936507935</v>
       </c>
-      <c r="G29" s="4">
-        <f t="shared" ref="G29" si="9">E29-E31</f>
-        <v>53.407848795131144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1024,7 @@
         <v>115.33236111111111</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1082,7 +1042,7 @@
         <v>166.59033056994821</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1098,10 +1058,6 @@
       <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>210.72316507936509</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" ref="G32" si="10">E32-E34</f>
-        <v>50.848098239986854</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">

--- a/annualyieldpermodule.xlsx
+++ b/annualyieldpermodule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fb00dc8ed84c692/Documents/Utrecht University/Energy in Built/6.2 Photovoltaic (PV) systems^J irradiance and PV performance evaluation/utrechtsmartdistricpartA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{EC9B7BA5-3176-4077-AEDA-D8135839D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875E6B3D-D646-45CA-930B-B239222DB6C3}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{EC9B7BA5-3176-4077-AEDA-D8135839D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBA7AB0F-1F67-4879-9427-8AD1025160AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD5D5653-035F-443A-A3B2-9117DE18EA5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
   <si>
     <t>surface</t>
   </si>
@@ -42,12 +42,6 @@
     <t>module</t>
   </si>
   <si>
-    <t>modulearea</t>
-  </si>
-  <si>
-    <t>AnnualYieldPerM2</t>
-  </si>
-  <si>
     <t>HIT</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>mono-Si</t>
   </si>
   <si>
-    <t>annualyield(was p_mp_sums)</t>
-  </si>
-  <si>
     <t>Façade ASE</t>
   </si>
   <si>
@@ -91,6 +82,21 @@
   </si>
   <si>
     <t>Façade BW</t>
+  </si>
+  <si>
+    <t>NoPanels</t>
+  </si>
+  <si>
+    <t>AnnualYieldPerSurface[MWh]</t>
+  </si>
+  <si>
+    <t>AnnualYieldPerM2[kWh/m2]</t>
+  </si>
+  <si>
+    <t>modulearea[m2]</t>
+  </si>
+  <si>
+    <t>annualyield(p_mpsums)[kW]</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -156,10 +168,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,18 +491,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7560010-2E6C-46A7-B5A5-A2D6BE8F529C}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,39 +511,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>208.769687</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>1.26</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <f>C2/D2</f>
         <v>165.69022777777778</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="7">
+        <v>1428</v>
+      </c>
+      <c r="G2" s="6">
+        <f>C2*F2/10^3</f>
+        <v>298.12311303600001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>62.525601999999999</v>
@@ -533,17 +564,24 @@
       <c r="D3" s="2">
         <v>0.72</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E34" si="0">C3/D3</f>
         <v>86.841113888888884</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1428</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G34" si="1">C3*F3/10^3</f>
+        <v>89.286559655999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>242.965498</v>
@@ -551,35 +589,49 @@
       <c r="D4" s="2">
         <v>1.93</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>125.88885906735752</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="F4">
+        <v>1428</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>346.95473114399999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
         <v>146.33371199999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1.26</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>116.13786666666665</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="7">
+        <v>1190</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>174.13711727999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>44.008803</v>
@@ -587,17 +639,24 @@
       <c r="D6" s="2">
         <v>0.72</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>61.123337500000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1190</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>52.370475570000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>171.39882900000001</v>
@@ -605,504 +664,700 @@
       <c r="D7" s="2">
         <v>1.93</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>88.807683419689127</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>180.92257699999999</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="F7">
+        <v>1190</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>203.96460651000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>277.19770599999998</v>
+      </c>
+      <c r="D8" s="4">
         <v>1.26</v>
       </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>143.5893468253968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="6">
+        <f>C8/D8</f>
+        <v>219.99817936507935</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1190</v>
+      </c>
+      <c r="G8" s="7">
+        <f>C8*F8/10^3</f>
+        <v>329.86527014000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>53.983705</v>
+        <v>83.039299999999997</v>
       </c>
       <c r="D9" s="2">
         <v>0.72</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>74.977368055555559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="3">
+        <f>C9/D9</f>
+        <v>115.33236111111111</v>
+      </c>
+      <c r="F9">
+        <v>1190</v>
+      </c>
+      <c r="G9">
+        <f>C9*F9/10^3</f>
+        <v>98.816766999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>210.35046299999999</v>
+        <v>321.519338</v>
       </c>
       <c r="D10" s="2">
         <v>1.93</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>108.98987720207253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="3">
+        <f>C10/D10</f>
+        <v>166.59033056994821</v>
+      </c>
+      <c r="F10">
+        <v>1190</v>
+      </c>
+      <c r="G10">
+        <f>C10*F10/10^3</f>
+        <v>382.60801222000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>186.18703500000001</v>
+        <v>180.92257699999999</v>
       </c>
       <c r="D11" s="2">
         <v>1.26</v>
       </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>147.76748809523809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="3">
+        <f>C11/D11</f>
+        <v>143.5893468253968</v>
+      </c>
+      <c r="F11">
+        <v>214</v>
+      </c>
+      <c r="G11">
+        <f>C11*F11/10^3</f>
+        <v>38.717431478000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>55.702761000000002</v>
+        <v>53.983705</v>
       </c>
       <c r="D12" s="2">
         <v>0.72</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>77.364945833333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="3">
+        <f>C12/D12</f>
+        <v>74.977368055555559</v>
+      </c>
+      <c r="F12">
+        <v>214</v>
+      </c>
+      <c r="G12">
+        <f>C12*F12/10^3</f>
+        <v>11.552512870000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>217.223108</v>
+        <v>210.35046299999999</v>
       </c>
       <c r="D13" s="2">
         <v>1.93</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>112.55083316062176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="3">
+        <f>C13/D13</f>
+        <v>108.98987720207253</v>
+      </c>
+      <c r="F13">
+        <v>214</v>
+      </c>
+      <c r="G13">
+        <f>C13*F13/10^3</f>
+        <v>45.014999081999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>117.781796</v>
+        <v>186.18703500000001</v>
       </c>
       <c r="D14" s="2">
         <v>1.26</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>93.477615873015878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="3">
+        <f>C14/D14</f>
+        <v>147.76748809523809</v>
+      </c>
+      <c r="F14">
+        <v>357</v>
+      </c>
+      <c r="G14">
+        <f>C14*F14/10^3</f>
+        <v>66.468771495000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>35.523429</v>
+        <v>55.702761000000002</v>
       </c>
       <c r="D15" s="2">
         <v>0.72</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>49.338095833333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="3">
+        <f>C15/D15</f>
+        <v>77.364945833333337</v>
+      </c>
+      <c r="F15">
+        <v>357</v>
+      </c>
+      <c r="G15">
+        <f>C15*F15/10^3</f>
+        <v>19.885885677000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>138.252476</v>
+        <v>217.223108</v>
       </c>
       <c r="D16" s="2">
         <v>1.93</v>
       </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>71.63340725388602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="3">
+        <f>C16/D16</f>
+        <v>112.55083316062176</v>
+      </c>
+      <c r="F16">
+        <v>357</v>
+      </c>
+      <c r="G16">
+        <f>C16*F16/10^3</f>
+        <v>77.548649556000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>263.38935500000002</v>
+        <v>117.781796</v>
       </c>
       <c r="D17" s="2">
         <v>1.26</v>
       </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>209.03917063492065</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="3">
+        <f>C17/D17</f>
+        <v>93.477615873015878</v>
+      </c>
+      <c r="F17">
+        <v>214</v>
+      </c>
+      <c r="G17">
+        <f>C17*F17/10^3</f>
+        <v>25.205304344000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>78.974840999999998</v>
+        <v>35.523429</v>
       </c>
       <c r="D18" s="2">
         <v>0.72</v>
       </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>109.68727916666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="3">
+        <f>C18/D18</f>
+        <v>49.338095833333334</v>
+      </c>
+      <c r="F18">
+        <v>214</v>
+      </c>
+      <c r="G18">
+        <f>C18*F18/10^3</f>
+        <v>7.6020138059999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>306.10403600000001</v>
+        <v>138.252476</v>
       </c>
       <c r="D19" s="2">
         <v>1.93</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>158.60312746113991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="3">
+        <f>C19/D19</f>
+        <v>71.63340725388602</v>
+      </c>
+      <c r="F19">
+        <v>214</v>
+      </c>
+      <c r="G19">
+        <f>C19*F19/10^3</f>
+        <v>29.586029864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>163.676301</v>
+        <v>265.511188</v>
       </c>
       <c r="D20" s="2">
         <v>1.26</v>
       </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>129.90182619047619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="3">
+        <f>C20/D20</f>
+        <v>210.72316507936509</v>
+      </c>
+      <c r="F20">
+        <v>595</v>
+      </c>
+      <c r="G20">
+        <f>C20*F20/10^3</f>
+        <v>157.97915685999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2">
-        <v>48.714682000000003</v>
+        <v>79.646259000000001</v>
       </c>
       <c r="D21" s="2">
         <v>0.72</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>67.659280555555569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="3">
+        <f>C21/D21</f>
+        <v>110.61980416666667</v>
+      </c>
+      <c r="F21">
+        <v>595</v>
+      </c>
+      <c r="G21">
+        <f>C21*F21/10^3</f>
+        <v>47.389524105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>191.10656399999999</v>
+        <v>308.55887899999999</v>
       </c>
       <c r="D22" s="2">
         <v>1.93</v>
       </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>99.018945077720204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="3">
+        <f>C22/D22</f>
+        <v>159.87506683937823</v>
+      </c>
+      <c r="F22">
+        <v>595</v>
+      </c>
+      <c r="G22">
+        <f>C22*F22/10^3</f>
+        <v>183.59253300500001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>182.920267</v>
+        <v>263.38935500000002</v>
       </c>
       <c r="D23" s="2">
         <v>1.26</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>145.17481507936506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="3">
+        <f>C23/D23</f>
+        <v>209.03917063492065</v>
+      </c>
+      <c r="F23">
+        <v>111</v>
+      </c>
+      <c r="G23">
+        <f>C23*F23/10^3</f>
+        <v>29.236218405000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>55.022748</v>
+        <v>78.974840999999998</v>
       </c>
       <c r="D24" s="2">
         <v>0.72</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>76.420483333333337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="3">
+        <f>C24/D24</f>
+        <v>109.68727916666667</v>
+      </c>
+      <c r="F24">
+        <v>111</v>
+      </c>
+      <c r="G24">
+        <f>C24*F24/10^3</f>
+        <v>8.7662073509999985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>213.98288700000001</v>
+        <v>306.10403600000001</v>
       </c>
       <c r="D25" s="2">
         <v>1.93</v>
       </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>110.87196217616581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="3">
+        <f>C25/D25</f>
+        <v>158.60312746113991</v>
+      </c>
+      <c r="F25">
+        <v>111</v>
+      </c>
+      <c r="G25">
+        <f>C25*F25/10^3</f>
+        <v>33.977547995999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>251.59750099999999</v>
+        <v>163.676301</v>
       </c>
       <c r="D26" s="2">
         <v>1.26</v>
       </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>199.68055634920634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="3">
+        <f>C26/D26</f>
+        <v>129.90182619047619</v>
+      </c>
+      <c r="F26">
+        <v>111</v>
+      </c>
+      <c r="G26">
+        <f>C26*F26/10^3</f>
+        <v>18.168069411000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>75.141689999999997</v>
+        <v>48.714682000000003</v>
       </c>
       <c r="D27" s="2">
         <v>0.72</v>
       </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>104.36345833333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="3">
+        <f>C27/D27</f>
+        <v>67.659280555555569</v>
+      </c>
+      <c r="F27">
+        <v>111</v>
+      </c>
+      <c r="G27">
+        <f>C27*F27/10^3</f>
+        <v>5.4073297020000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
-        <v>291.75419399999998</v>
+        <v>191.10656399999999</v>
       </c>
       <c r="D28" s="2">
         <v>1.93</v>
       </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>151.16797616580311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="3">
+        <f>C28/D28</f>
+        <v>99.018945077720204</v>
+      </c>
+      <c r="F28">
+        <v>111</v>
+      </c>
+      <c r="G28">
+        <f>C28*F28/10^3</f>
+        <v>21.212828603999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
-        <v>277.19770599999998</v>
+        <v>182.920267</v>
       </c>
       <c r="D29" s="2">
         <v>1.26</v>
       </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>219.99817936507935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="3">
+        <f>C29/D29</f>
+        <v>145.17481507936506</v>
+      </c>
+      <c r="F29">
+        <v>111</v>
+      </c>
+      <c r="G29">
+        <f>C29*F29/10^3</f>
+        <v>20.304149636999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>83.039299999999997</v>
+        <v>55.022748</v>
       </c>
       <c r="D30" s="2">
         <v>0.72</v>
       </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>115.33236111111111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="3">
+        <f>C30/D30</f>
+        <v>76.420483333333337</v>
+      </c>
+      <c r="F30">
+        <v>111</v>
+      </c>
+      <c r="G30">
+        <f>C30*F30/10^3</f>
+        <v>6.1075250280000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C31" s="2">
-        <v>321.519338</v>
+        <v>213.98288700000001</v>
       </c>
       <c r="D31" s="2">
         <v>1.93</v>
       </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>166.59033056994821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="3">
+        <f>C31/D31</f>
+        <v>110.87196217616581</v>
+      </c>
+      <c r="F31">
+        <v>111</v>
+      </c>
+      <c r="G31">
+        <f>C31*F31/10^3</f>
+        <v>23.752100457000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2">
-        <v>265.511188</v>
+        <v>251.59750099999999</v>
       </c>
       <c r="D32" s="2">
         <v>1.26</v>
       </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>210.72316507936509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="3">
+        <f>C32/D32</f>
+        <v>199.68055634920634</v>
+      </c>
+      <c r="F32">
+        <v>111</v>
+      </c>
+      <c r="G32">
+        <f>C32*F32/10^3</f>
+        <v>27.927322611000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2">
-        <v>79.646259000000001</v>
+        <v>75.141689999999997</v>
       </c>
       <c r="D33" s="2">
         <v>0.72</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>110.61980416666667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="3">
+        <f>C33/D33</f>
+        <v>104.36345833333333</v>
+      </c>
+      <c r="F33">
+        <v>111</v>
+      </c>
+      <c r="G33">
+        <f>C33*F33/10^3</f>
+        <v>8.3407275900000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
-        <v>308.55887899999999</v>
+        <v>291.75419399999998</v>
       </c>
       <c r="D34" s="2">
         <v>1.93</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>159.87506683937823</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="3">
+        <f>C34/D34</f>
+        <v>151.16797616580311</v>
+      </c>
+      <c r="F34">
+        <v>111</v>
+      </c>
+      <c r="G34">
+        <f>C34*F34/10^3</f>
+        <v>32.384715534000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E39" s="2"/>
     </row>
   </sheetData>
